--- a/data/meta_table_filled_280319.xlsx
+++ b/data/meta_table_filled_280319.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1290">
   <si>
     <t>Key</t>
   </si>
@@ -3814,9 +3814,6 @@
     <t>Only one repeatability in time measured (but different treatment groups)</t>
   </si>
   <si>
-    <t>Cattle exit speed across days</t>
-  </si>
-  <si>
     <t>Long term but only one repeatability reported</t>
   </si>
   <si>
@@ -3881,6 +3878,18 @@
   </si>
   <si>
     <t>Strange repeatability, not sure whether longitudinal</t>
+  </si>
+  <si>
+    <t>Only one repeatability of the same measure reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeatabilities not shown, only NS for all non-significant ones </t>
+  </si>
+  <si>
+    <t>Cattle exit speed across days, no uncertainties or p-values</t>
+  </si>
+  <si>
+    <t>Probably not useful, but discuss with Holger</t>
   </si>
 </sst>
 </file>
@@ -3961,12 +3970,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3974,6 +3977,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4009,8 +4018,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4356,9 +4365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B85" sqref="B85"/>
+      <selection pane="topRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4631,7 +4640,7 @@
         <v>178</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4708,7 +4717,7 @@
         <v>190</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4766,7 +4775,7 @@
         <v>86</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4966,7 +4975,7 @@
         <v>57</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4995,36 +5004,36 @@
         <v>8</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>2013</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="14">
         <v>182</v>
       </c>
-      <c r="AB18" s="15" t="s">
-        <v>1285</v>
+      <c r="AB18" s="14" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5053,7 +5062,7 @@
         <v>150</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="20" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5111,7 +5120,7 @@
         <v>279</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="22" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6047,36 +6056,36 @@
         <v>85</v>
       </c>
       <c r="AB54" s="3" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J55" s="3">
+        <v>167</v>
+      </c>
+      <c r="AB55" s="3" t="s">
         <v>1281</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>320</v>
-      </c>
-      <c r="B55" t="s">
-        <v>319</v>
-      </c>
-      <c r="C55">
-        <v>2015</v>
-      </c>
-      <c r="D55" t="s">
-        <v>321</v>
-      </c>
-      <c r="E55" t="s">
-        <v>35</v>
-      </c>
-      <c r="H55" t="s">
-        <v>322</v>
-      </c>
-      <c r="I55" t="s">
-        <v>323</v>
-      </c>
-      <c r="J55">
-        <v>167</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="56" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6131,7 +6140,7 @@
         <v>282</v>
       </c>
       <c r="AB57" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="58" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6438,7 +6447,7 @@
         <v>4</v>
       </c>
       <c r="AB68" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="69" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6554,32 +6563,32 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="73" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="14" t="s">
+    <row r="73" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="2">
         <v>2016</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H73" s="14" t="s">
+      <c r="H73" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="I73" s="14" t="s">
+      <c r="I73" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J73" s="2">
         <v>153</v>
       </c>
-      <c r="AB73" s="14" t="s">
+      <c r="AB73" s="2" t="s">
         <v>1237</v>
       </c>
     </row>
@@ -6690,7 +6699,7 @@
         <v>26</v>
       </c>
       <c r="AB77" s="11" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="78" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -6881,29 +6890,29 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="85" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="7">
         <v>2013</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="7">
         <v>146</v>
       </c>
     </row>
@@ -6962,29 +6971,29 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="88" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="15" t="s">
+    <row r="88" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="14">
         <v>2009</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D88" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E88" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="I88" s="15" t="s">
+      <c r="I88" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="J88" s="15">
+      <c r="J88" s="14">
         <v>57</v>
       </c>
-      <c r="AB88" s="15" t="s">
+      <c r="AB88" s="14" t="s">
         <v>1243</v>
       </c>
     </row>
@@ -7089,30 +7098,33 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="93" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="2">
         <v>2003</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="2">
         <v>81</v>
+      </c>
+      <c r="AB93" s="2" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="94" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7199,30 +7211,33 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="97" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
         <v>2006</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="2">
         <v>57</v>
+      </c>
+      <c r="AB97" s="2" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="98" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7793,30 +7808,33 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="118" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="2">
         <v>2011</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="2">
         <v>133</v>
+      </c>
+      <c r="AB118" s="2" t="s">
+        <v>1287</v>
       </c>
     </row>
     <row r="119" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7990,30 +8008,33 @@
         <v>86</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="125" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="17">
         <v>2013</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="17" t="s">
         <v>690</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" s="17" t="s">
         <v>692</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="17">
         <v>19</v>
+      </c>
+      <c r="AB125" s="17" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="126" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8155,64 +8176,64 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="131" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="16" t="s">
+    <row r="131" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="15" t="s">
         <v>721</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="15" t="s">
         <v>720</v>
       </c>
-      <c r="C131" s="16">
+      <c r="C131" s="15">
         <v>1994</v>
       </c>
-      <c r="D131" s="16" t="s">
+      <c r="D131" s="15" t="s">
         <v>722</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="G131" s="16" t="s">
+      <c r="G131" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="H131" s="16" t="s">
+      <c r="H131" s="15" t="s">
         <v>723</v>
       </c>
-      <c r="I131" s="16" t="s">
+      <c r="I131" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="J131" s="16">
+      <c r="J131" s="15">
         <v>47</v>
       </c>
-      <c r="AB131" s="16" t="s">
+      <c r="AB131" s="15" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="132" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="16" t="s">
+    <row r="132" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="15" t="s">
         <v>726</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B132" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="C132" s="16">
+      <c r="C132" s="15">
         <v>2010</v>
       </c>
-      <c r="D132" s="16" t="s">
+      <c r="D132" s="15" t="s">
         <v>727</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H132" s="16" t="s">
+      <c r="H132" s="15" t="s">
         <v>728</v>
       </c>
-      <c r="I132" s="16" t="s">
+      <c r="I132" s="15" t="s">
         <v>729</v>
       </c>
-      <c r="J132" s="16">
+      <c r="J132" s="15">
         <v>80</v>
       </c>
-      <c r="AB132" s="16" t="s">
+      <c r="AB132" s="15" t="s">
         <v>1250</v>
       </c>
     </row>
@@ -8851,30 +8872,33 @@
         <v>70</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="155" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="2">
         <v>1994</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H155" t="s">
+      <c r="H155" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I155" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="2">
         <v>5</v>
+      </c>
+      <c r="AB155" s="2" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="156" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9129,29 +9153,29 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="165" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="15" t="s">
+    <row r="165" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="14" t="s">
         <v>907</v>
       </c>
-      <c r="B165" s="15" t="s">
+      <c r="B165" s="14" t="s">
         <v>906</v>
       </c>
-      <c r="C165" s="15">
+      <c r="C165" s="14">
         <v>2018</v>
       </c>
-      <c r="D165" s="15" t="s">
+      <c r="D165" s="14" t="s">
         <v>908</v>
       </c>
-      <c r="E165" s="15" t="s">
+      <c r="E165" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H165" s="15" t="s">
+      <c r="H165" s="14" t="s">
         <v>909</v>
       </c>
-      <c r="J165" s="15">
+      <c r="J165" s="14">
         <v>72</v>
       </c>
-      <c r="AB165" s="15" t="s">
+      <c r="AB165" s="14" t="s">
         <v>1257</v>
       </c>
     </row>
@@ -9329,33 +9353,33 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="172" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="10" t="s">
+    <row r="172" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="17" t="s">
         <v>941</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="17" t="s">
         <v>940</v>
       </c>
-      <c r="C172" s="10">
+      <c r="C172" s="17">
         <v>2011</v>
       </c>
-      <c r="D172" s="10" t="s">
+      <c r="D172" s="17" t="s">
         <v>942</v>
       </c>
-      <c r="E172" s="10" t="s">
+      <c r="E172" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="H172" s="10" t="s">
+      <c r="H172" s="17" t="s">
         <v>943</v>
       </c>
-      <c r="I172" s="10" t="s">
+      <c r="I172" s="17" t="s">
         <v>944</v>
       </c>
-      <c r="J172" s="10">
+      <c r="J172" s="17">
         <v>22</v>
       </c>
-      <c r="AB172" s="10" t="s">
-        <v>1270</v>
+      <c r="AB172" s="17" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="173" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -9494,29 +9518,29 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="178" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="7" t="s">
         <v>971</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="7">
         <v>2002</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H178" t="s">
+      <c r="H178" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I178" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="J178">
+      <c r="J178" s="7">
         <v>139</v>
       </c>
     </row>
@@ -9572,58 +9596,58 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="181" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="17" t="s">
+    <row r="181" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="16" t="s">
         <v>986</v>
       </c>
-      <c r="B181" s="17" t="s">
+      <c r="B181" s="16" t="s">
         <v>985</v>
       </c>
-      <c r="C181" s="17">
+      <c r="C181" s="16">
         <v>2012</v>
       </c>
-      <c r="D181" s="17" t="s">
+      <c r="D181" s="16" t="s">
         <v>987</v>
       </c>
-      <c r="E181" s="17" t="s">
+      <c r="E181" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="H181" s="17" t="s">
+      <c r="H181" s="16" t="s">
         <v>988</v>
       </c>
-      <c r="J181" s="17">
+      <c r="J181" s="16">
         <v>7</v>
       </c>
-      <c r="AB181" s="17" t="s">
+      <c r="AB181" s="16" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="182" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="4" t="s">
+    <row r="182" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="11" t="s">
         <v>990</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="11" t="s">
         <v>989</v>
       </c>
-      <c r="C182" s="4">
+      <c r="C182" s="11">
         <v>2010</v>
       </c>
-      <c r="D182" s="4" t="s">
+      <c r="D182" s="11" t="s">
         <v>991</v>
       </c>
-      <c r="E182" s="4" t="s">
+      <c r="E182" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H182" s="4" t="s">
+      <c r="H182" s="11" t="s">
         <v>992</v>
       </c>
-      <c r="I182" s="4" t="s">
+      <c r="I182" s="11" t="s">
         <v>993</v>
       </c>
-      <c r="J182" s="4">
+      <c r="J182" s="11">
         <v>80</v>
       </c>
-      <c r="AB182" s="4" t="s">
+      <c r="AB182" s="11" t="s">
         <v>1262</v>
       </c>
     </row>
@@ -9992,59 +10016,62 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+    <row r="196" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="17" t="s">
         <v>1059</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="17" t="s">
         <v>1058</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="17">
         <v>2016</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="17" t="s">
         <v>1060</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H196" t="s">
+      <c r="H196" s="17" t="s">
         <v>1061</v>
       </c>
-      <c r="I196" t="s">
+      <c r="I196" s="17" t="s">
         <v>1062</v>
       </c>
-      <c r="J196">
+      <c r="J196" s="17">
         <v>113</v>
       </c>
-    </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+      <c r="AB196" s="17" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="2">
         <v>2013</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="H197" t="s">
+      <c r="H197" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="I197" t="s">
+      <c r="I197" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="J197">
+      <c r="J197" s="2">
         <v>91</v>
       </c>
-      <c r="AB197" s="10" t="s">
-        <v>1264</v>
+      <c r="AB197" s="2" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="198" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10073,7 +10100,7 @@
         <v>124</v>
       </c>
       <c r="AB198" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="199" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10151,7 +10178,7 @@
         <v>21</v>
       </c>
       <c r="AB201" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="202" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -10183,7 +10210,7 @@
         <v>4</v>
       </c>
       <c r="AB202" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="203" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10212,33 +10239,33 @@
         <v>70</v>
       </c>
     </row>
-    <row r="204" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="15" t="s">
+    <row r="204" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="14" t="s">
         <v>1101</v>
       </c>
-      <c r="B204" s="15" t="s">
+      <c r="B204" s="14" t="s">
         <v>1100</v>
       </c>
-      <c r="C204" s="15">
+      <c r="C204" s="14">
         <v>2017</v>
       </c>
-      <c r="D204" s="15" t="s">
+      <c r="D204" s="14" t="s">
         <v>1102</v>
       </c>
-      <c r="E204" s="15" t="s">
+      <c r="E204" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="H204" s="15" t="s">
+      <c r="H204" s="14" t="s">
         <v>1103</v>
       </c>
-      <c r="I204" s="15" t="s">
+      <c r="I204" s="14" t="s">
         <v>1104</v>
       </c>
-      <c r="J204" s="15">
+      <c r="J204" s="14">
         <v>145</v>
       </c>
-      <c r="AB204" s="15" t="s">
-        <v>1268</v>
+      <c r="AB204" s="14" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="205" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10319,7 +10346,7 @@
         <v>183</v>
       </c>
       <c r="AB207" s="7" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="208" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10348,7 +10375,7 @@
         <v>305</v>
       </c>
       <c r="AB208" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="209" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10377,7 +10404,7 @@
         <v>133</v>
       </c>
       <c r="AB209" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="210" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10490,7 +10517,7 @@
         <v>80</v>
       </c>
       <c r="AB213" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="214" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10516,33 +10543,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+    <row r="215" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="2">
         <v>2015</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H215" t="s">
+      <c r="H215" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="I215" t="s">
+      <c r="I215" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="J215">
+      <c r="J215" s="2">
         <v>169</v>
       </c>
       <c r="AB215" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="216" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10649,12 +10676,12 @@
         <v>208</v>
       </c>
       <c r="AB219" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
   </sheetData>

--- a/data/meta_table_filled_280319.xlsx
+++ b/data/meta_table_filled_280319.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="31520" yWindow="3300" windowWidth="32920" windowHeight="21380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1289">
   <si>
     <t>Key</t>
   </si>
@@ -3712,9 +3712,6 @@
     <t>Only two measurements of each test</t>
   </si>
   <si>
-    <t>Figure out with Holger</t>
-  </si>
-  <si>
     <t>Only one repeatability / Handling stress behaviour?</t>
   </si>
   <si>
@@ -3724,9 +3721,6 @@
     <t>Only one repeatability reported although useful data collected</t>
   </si>
   <si>
-    <t>Data is there, needs to be analyses</t>
-  </si>
-  <si>
     <t>Greggor, Alison L.; Jolles, Jolle W.; Thornton, Alex; Clayton, Nicola S.</t>
   </si>
   <si>
@@ -3890,6 +3884,9 @@
   </si>
   <si>
     <t>Probably not useful, but discuss with Holger</t>
+  </si>
+  <si>
+    <t>Discuss with Holger, Data is there but without time between observations, only the mean is meantioned in manuscript</t>
   </si>
 </sst>
 </file>
@@ -4365,9 +4362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE59" sqref="AE59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4640,7 +4637,7 @@
         <v>178</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4717,7 +4714,7 @@
         <v>190</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4775,7 +4772,7 @@
         <v>86</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4975,7 +4972,7 @@
         <v>57</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5004,7 +5001,7 @@
         <v>8</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="18" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -5033,7 +5030,7 @@
         <v>182</v>
       </c>
       <c r="AB18" s="14" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5062,7 +5059,7 @@
         <v>150</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="20" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5120,7 +5117,7 @@
         <v>279</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="22" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6056,7 +6053,7 @@
         <v>85</v>
       </c>
       <c r="AB54" s="3" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="55" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -6085,7 +6082,7 @@
         <v>167</v>
       </c>
       <c r="AB55" s="3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="56" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6140,7 +6137,7 @@
         <v>282</v>
       </c>
       <c r="AB57" s="12" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="58" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6195,7 +6192,7 @@
         <v>25</v>
       </c>
       <c r="AB59" s="12" t="s">
-        <v>1230</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="60" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -6224,7 +6221,7 @@
         <v>115</v>
       </c>
       <c r="AB60" s="13" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="61" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6282,7 +6279,7 @@
         <v>69</v>
       </c>
       <c r="AB62" s="7" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="63" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6311,7 +6308,7 @@
         <v>152</v>
       </c>
       <c r="AB63" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="64" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6398,30 +6395,30 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="11">
         <v>2017</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J67" s="11">
         <v>12</v>
       </c>
-      <c r="AB67" s="4" t="s">
-        <v>1234</v>
+      <c r="AB67" s="11" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="68" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6447,7 +6444,7 @@
         <v>4</v>
       </c>
       <c r="AB68" s="2" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="69" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6478,7 +6475,7 @@
     </row>
     <row r="70" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>396</v>
@@ -6528,7 +6525,7 @@
         <v>24</v>
       </c>
       <c r="AB71" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="72" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6589,7 +6586,7 @@
         <v>153</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="74" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6699,7 +6696,7 @@
         <v>26</v>
       </c>
       <c r="AB77" s="11" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="78" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -6728,7 +6725,7 @@
         <v>66</v>
       </c>
       <c r="AB78" s="13" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="79" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6757,7 +6754,7 @@
         <v>79</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="80" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6861,7 +6858,7 @@
         <v>35</v>
       </c>
       <c r="AB83" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="84" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6887,7 +6884,7 @@
         <v>9</v>
       </c>
       <c r="AB84" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="85" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6939,7 +6936,7 @@
         <v>284</v>
       </c>
       <c r="AB86" s="4" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="87" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6968,7 +6965,7 @@
         <v>329</v>
       </c>
       <c r="AB87" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="88" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6994,7 +6991,7 @@
         <v>57</v>
       </c>
       <c r="AB88" s="14" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="89" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7020,7 +7017,7 @@
         <v>12</v>
       </c>
       <c r="AB89" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="90" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7124,7 +7121,7 @@
         <v>81</v>
       </c>
       <c r="AB93" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="94" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7292,7 +7289,7 @@
         <v>284</v>
       </c>
       <c r="AB99" s="4" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="100" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7321,7 +7318,7 @@
         <v>114</v>
       </c>
       <c r="AB100" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="101" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7408,7 +7405,7 @@
         <v>84</v>
       </c>
       <c r="AB103" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="104" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7466,7 +7463,7 @@
         <v>68</v>
       </c>
       <c r="AB105" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="106" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7527,7 +7524,7 @@
         <v>165</v>
       </c>
       <c r="AB107" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="108" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7556,7 +7553,7 @@
         <v>68</v>
       </c>
       <c r="AB108" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="109" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7611,7 +7608,7 @@
         <v>2</v>
       </c>
       <c r="AB110" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="111" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7724,7 +7721,7 @@
         <v>220</v>
       </c>
       <c r="AB114" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="115" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7779,7 +7776,7 @@
         <v>91</v>
       </c>
       <c r="AB116" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="117" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7834,7 +7831,7 @@
         <v>133</v>
       </c>
       <c r="AB118" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="119" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8034,7 +8031,7 @@
         <v>19</v>
       </c>
       <c r="AB125" s="17" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="126" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8205,7 +8202,7 @@
         <v>47</v>
       </c>
       <c r="AB131" s="15" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="132" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -8234,7 +8231,7 @@
         <v>80</v>
       </c>
       <c r="AB132" s="15" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="133" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8321,7 +8318,7 @@
         <v>52</v>
       </c>
       <c r="AB135" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="136" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8350,7 +8347,7 @@
         <v>27</v>
       </c>
       <c r="AB136" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="137" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8379,7 +8376,7 @@
         <v>70</v>
       </c>
       <c r="AB137" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="138" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8410,7 +8407,7 @@
     </row>
     <row r="139" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>761</v>
@@ -8466,7 +8463,7 @@
         <v>26</v>
       </c>
       <c r="AB140" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="141" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8495,7 +8492,7 @@
         <v>119</v>
       </c>
       <c r="AB141" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="142" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8524,7 +8521,7 @@
         <v>124</v>
       </c>
       <c r="AB142" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="143" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8582,7 +8579,7 @@
         <v>585</v>
       </c>
       <c r="AB144" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="145" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8611,7 +8608,7 @@
         <v>123</v>
       </c>
       <c r="AB145" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="146" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8672,7 +8669,7 @@
         <v>85</v>
       </c>
       <c r="AB147" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="148" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8701,7 +8698,7 @@
         <v>3</v>
       </c>
       <c r="AB148" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="149" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8730,7 +8727,7 @@
         <v>123</v>
       </c>
       <c r="AB149" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="150" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8759,7 +8756,7 @@
         <v>46</v>
       </c>
       <c r="AB150" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="151" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8788,7 +8785,7 @@
         <v>133</v>
       </c>
       <c r="AB151" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="152" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8843,7 +8840,7 @@
         <v>126</v>
       </c>
       <c r="AB153" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="154" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8898,7 +8895,7 @@
         <v>5</v>
       </c>
       <c r="AB155" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="156" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8930,7 +8927,7 @@
         <v>69</v>
       </c>
       <c r="AB156" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="157" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8982,7 +8979,7 @@
         <v>872</v>
       </c>
       <c r="AB158" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="159" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9011,7 +9008,7 @@
         <v>122</v>
       </c>
       <c r="AB159" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="160" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -9037,7 +9034,7 @@
         <v>4</v>
       </c>
       <c r="AB160" s="4" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="161" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -9092,7 +9089,7 @@
         <v>89</v>
       </c>
       <c r="AB162" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="163" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9118,7 +9115,7 @@
         <v>898</v>
       </c>
       <c r="AB163" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="164" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -9150,7 +9147,7 @@
         <v>28</v>
       </c>
       <c r="AB164" s="4" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="165" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -9176,7 +9173,7 @@
         <v>72</v>
       </c>
       <c r="AB165" s="14" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="166" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9205,7 +9202,7 @@
         <v>18</v>
       </c>
       <c r="AB166" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="167" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9234,7 +9231,7 @@
         <v>75</v>
       </c>
       <c r="AB167" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="168" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -9265,7 +9262,7 @@
     </row>
     <row r="169" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>926</v>
@@ -9289,7 +9286,7 @@
         <v>107</v>
       </c>
       <c r="AB169" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="170" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9321,7 +9318,7 @@
         <v>165</v>
       </c>
       <c r="AB170" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="171" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9350,7 +9347,7 @@
         <v>99</v>
       </c>
       <c r="AB171" s="2" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="172" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -9379,7 +9376,7 @@
         <v>22</v>
       </c>
       <c r="AB172" s="17" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="173" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -9431,7 +9428,7 @@
         <v>109</v>
       </c>
       <c r="AB174" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="175" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -9489,7 +9486,7 @@
         <v>124</v>
       </c>
       <c r="AB176" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="177" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9515,7 +9512,7 @@
         <v>10</v>
       </c>
       <c r="AB177" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="178" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -9593,7 +9590,7 @@
         <v>27</v>
       </c>
       <c r="AB180" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="181" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -9619,7 +9616,7 @@
         <v>7</v>
       </c>
       <c r="AB181" s="16" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="182" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -9648,7 +9645,7 @@
         <v>80</v>
       </c>
       <c r="AB182" s="11" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="183" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9677,7 +9674,7 @@
         <v>123</v>
       </c>
       <c r="AB183" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="184" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9706,7 +9703,7 @@
         <v>106</v>
       </c>
       <c r="AB184" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="185" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9735,7 +9732,7 @@
         <v>89</v>
       </c>
       <c r="AB185" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="186" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -9790,7 +9787,7 @@
         <v>84</v>
       </c>
       <c r="AB187" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="188" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -9845,7 +9842,7 @@
         <v>68</v>
       </c>
       <c r="AB189" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="190" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9874,7 +9871,7 @@
         <v>119</v>
       </c>
       <c r="AB190" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="191" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9903,7 +9900,7 @@
         <v>153</v>
       </c>
       <c r="AB191" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="192" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9932,7 +9929,7 @@
         <v>117</v>
       </c>
       <c r="AB192" s="2" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="193" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9961,7 +9958,7 @@
         <v>89</v>
       </c>
       <c r="AB193" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="194" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10013,7 +10010,7 @@
         <v>64</v>
       </c>
       <c r="AB195" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="196" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -10042,7 +10039,7 @@
         <v>113</v>
       </c>
       <c r="AB196" s="17" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="197" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10071,7 +10068,7 @@
         <v>91</v>
       </c>
       <c r="AB197" s="2" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="198" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10100,7 +10097,7 @@
         <v>124</v>
       </c>
       <c r="AB198" s="2" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="199" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10178,7 +10175,7 @@
         <v>21</v>
       </c>
       <c r="AB201" s="2" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="202" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -10210,7 +10207,7 @@
         <v>4</v>
       </c>
       <c r="AB202" s="4" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="203" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10265,7 +10262,7 @@
         <v>145</v>
       </c>
       <c r="AB204" s="14" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="205" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10294,7 +10291,7 @@
         <v>42</v>
       </c>
       <c r="AB205" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="206" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10346,7 +10343,7 @@
         <v>183</v>
       </c>
       <c r="AB207" s="7" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="208" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10375,7 +10372,7 @@
         <v>305</v>
       </c>
       <c r="AB208" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="209" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10404,7 +10401,7 @@
         <v>133</v>
       </c>
       <c r="AB209" s="2" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="210" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10433,7 +10430,7 @@
         <v>20</v>
       </c>
       <c r="AB210" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="211" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10488,7 +10485,7 @@
         <v>124</v>
       </c>
       <c r="AB212" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="213" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10517,7 +10514,7 @@
         <v>80</v>
       </c>
       <c r="AB213" s="2" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="214" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10569,7 +10566,7 @@
         <v>169</v>
       </c>
       <c r="AB215" s="2" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="216" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10676,12 +10673,12 @@
         <v>208</v>
       </c>
       <c r="AB219" s="2" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
   </sheetData>

--- a/data/meta_table_filled_280319.xlsx
+++ b/data/meta_table_filled_280319.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Dropbox/projects/current/rpt_behav_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C889A541-BBFA-0848-8529-32A77C6038BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31520" yWindow="3300" windowWidth="32920" windowHeight="21380"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="32920" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="1275">
   <si>
     <t>Key</t>
   </si>
@@ -3565,24 +3566,9 @@
     <t>sample_size</t>
   </si>
   <si>
-    <t>blackbird</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>song sparrow</t>
-  </si>
-  <si>
-    <t>antlion</t>
-  </si>
-  <si>
-    <t>Canary</t>
-  </si>
-  <si>
     <t>wild caught bird put into captivity - repeat. Only estimated between days 1 and 20 and 5 and 20 and throughout the full period</t>
   </si>
   <si>
@@ -3592,39 +3578,12 @@
     <t>only across experiment-repeatability (not across time)</t>
   </si>
   <si>
-    <t>Long vs. short photoperiod</t>
-  </si>
-  <si>
-    <t>Photoperiod change</t>
-  </si>
-  <si>
-    <t>0.048</t>
-  </si>
-  <si>
-    <t>Dominance</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
     <t>Only overall repeatability reported</t>
   </si>
   <si>
-    <t>zebrafish</t>
-  </si>
-  <si>
     <t>Akcay, .; Campbell, S.E.; Beecher, M.D.</t>
   </si>
   <si>
-    <t>Great tit</t>
-  </si>
-  <si>
     <t>No sufficient repeatabilities reported / analysed</t>
   </si>
   <si>
@@ -3751,9 +3710,6 @@
     <t>Only one repeatability, measured over short term</t>
   </si>
   <si>
-    <t>Data is there, not sure whether it's what we need</t>
-  </si>
-  <si>
     <t>Only one repeatability measured, no longer term data</t>
   </si>
   <si>
@@ -3856,9 +3812,6 @@
     <t>Discuss with Holger (again)</t>
   </si>
   <si>
-    <t>POnly one repeatability but could be double checked</t>
-  </si>
-  <si>
     <t>No access to pdf</t>
   </si>
   <si>
@@ -3887,12 +3840,18 @@
   </si>
   <si>
     <t>Discuss with Holger, Data is there but without time between observations, only the mean is meantioned in manuscript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only one repeatability </t>
+  </si>
+  <si>
+    <t>Only two tests</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3910,7 +3869,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3920,12 +3879,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE9927D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3973,12 +3926,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3996,7 +3943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4004,19 +3951,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4359,12 +4303,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE59" sqref="AE59"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H188" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4373,13 +4317,14 @@
     <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="20.83203125" customWidth="1"/>
-    <col min="16" max="16" width="11.83203125" customWidth="1"/>
-    <col min="17" max="17" width="20.5" customWidth="1"/>
-    <col min="19" max="19" width="17.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4420,7 +4365,7 @@
         <v>1180</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -4494,7 +4439,7 @@
         <v>11</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>1228</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4522,31 +4467,13 @@
       <c r="J3" s="2">
         <v>134</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="L3" s="2">
-        <v>22</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>2</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>1183</v>
-      </c>
       <c r="AB3" s="2" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1199</v>
+        <v>1186</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
@@ -4566,17 +4493,8 @@
       <c r="J4" s="2">
         <v>281</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="L4" s="2">
-        <v>69</v>
-      </c>
-      <c r="M4" s="2">
-        <v>2</v>
-      </c>
       <c r="AB4" s="2" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4604,11 +4522,8 @@
       <c r="J5" s="2">
         <v>68</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="AB5" s="2" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4637,251 +4552,197 @@
         <v>178</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>2017</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>123</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>1186</v>
-      </c>
-      <c r="L7" s="7">
-        <v>96</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>1193</v>
-      </c>
-      <c r="O7" s="7">
-        <v>1</v>
-      </c>
-      <c r="P7" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>1190</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>1183</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>1191</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>1194</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>1192</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>1195</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>844</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>1034</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>190</v>
-      </c>
-      <c r="AB7" s="7" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="AB7" s="6" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>2015</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>108</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    </row>
+    <row r="9" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>2017</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>86</v>
       </c>
-      <c r="AB9" s="8" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="AB9" s="7" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>2011</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>65</v>
       </c>
-      <c r="AB10" s="5" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="AB10" s="4" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>2017</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>2018</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>8</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+    </row>
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>2017</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>189</v>
       </c>
     </row>
@@ -4911,7 +4772,7 @@
         <v>136</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>1206</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4943,7 +4804,7 @@
         <v>105</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>1207</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4972,7 +4833,7 @@
         <v>57</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>1281</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5001,36 +4862,36 @@
         <v>8</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>2013</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>182</v>
       </c>
-      <c r="AB18" s="14" t="s">
-        <v>1282</v>
+      <c r="AB18" s="13" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5059,65 +4920,65 @@
         <v>150</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>2016</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>6</v>
       </c>
-      <c r="AB20" s="5" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="AB20" s="4" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="10">
         <v>2012</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="10">
         <v>279</v>
       </c>
-      <c r="AB21" s="4" t="s">
-        <v>1277</v>
+      <c r="AB21" s="10" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="22" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5146,7 +5007,7 @@
         <v>123</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>1208</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="23" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5175,7 +5036,7 @@
         <v>35</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="24" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5204,7 +5065,7 @@
         <v>123</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>1210</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5233,61 +5094,61 @@
         <v>34</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>2017</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>123</v>
       </c>
-      <c r="AB26" s="7" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="AB26" s="6" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>2014</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>68</v>
       </c>
     </row>
@@ -5317,7 +5178,7 @@
         <v>5</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>1213</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="29" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5346,7 +5207,7 @@
         <v>35</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>1214</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="30" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5375,7 +5236,7 @@
         <v>7</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>1215</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="31" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5404,7 +5265,7 @@
         <v>62</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>1216</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="32" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5436,7 +5297,7 @@
         <v>57</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>1217</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="33" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5465,7 +5326,7 @@
         <v>48</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>1218</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="34" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5494,7 +5355,7 @@
         <v>118</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>1219</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="35" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5523,81 +5384,81 @@
         <v>56</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>2018</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>2013</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>2017</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="6">
         <v>95</v>
       </c>
     </row>
@@ -5630,7 +5491,7 @@
         <v>18</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>1220</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="40" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5659,7 +5520,7 @@
         <v>83</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>1221</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="41" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5688,7 +5549,7 @@
         <v>135</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>1220</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="42" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5717,33 +5578,33 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>2004</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="6">
         <v>30</v>
       </c>
-      <c r="AB43" s="7" t="s">
-        <v>1222</v>
+      <c r="AB43" s="6" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="44" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5772,84 +5633,84 @@
         <v>23</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>2012</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="6">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>1999</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="6">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>2015</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="6">
         <v>109</v>
       </c>
     </row>
@@ -5879,7 +5740,7 @@
         <v>64</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="49" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5908,7 +5769,7 @@
         <v>37</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="50" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5937,36 +5798,36 @@
         <v>79</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>2010</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="6">
         <v>23</v>
       </c>
-      <c r="AB51" s="7" t="s">
-        <v>1225</v>
+      <c r="AB51" s="6" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="52" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5995,94 +5856,94 @@
         <v>157</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>1997</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="6">
         <v>54</v>
       </c>
-      <c r="AB53" s="7" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="AB53" s="6" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>2013</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="2">
         <v>85</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+      <c r="AB54" s="2" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="6">
         <v>2015</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="6">
         <v>167</v>
       </c>
-      <c r="AB55" s="3" t="s">
-        <v>1279</v>
+      <c r="AB55" s="6" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="56" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6111,175 +5972,175 @@
         <v>21</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="11">
         <v>2015</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="H57" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="11">
         <v>282</v>
       </c>
-      <c r="AB57" s="12" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+      <c r="AB57" s="11" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>2018</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="4">
         <v>13</v>
       </c>
-      <c r="AB58" s="5" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
+      <c r="AB58" s="4" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="11">
         <v>2014</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="H59" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="I59" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J59" s="11">
         <v>25</v>
       </c>
-      <c r="AB59" s="12" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
+      <c r="AB59" s="11" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="12">
         <v>2009</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="I60" s="13" t="s">
+      <c r="I60" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="12">
         <v>115</v>
       </c>
-      <c r="AB60" s="13" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+      <c r="AB60" s="12" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>2010</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I61" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+    <row r="62" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>2015</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I62" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="6">
         <v>69</v>
       </c>
-      <c r="AB62" s="7" t="s">
-        <v>1231</v>
+      <c r="AB62" s="6" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="63" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6308,7 +6169,7 @@
         <v>152</v>
       </c>
       <c r="AB63" s="2" t="s">
-        <v>1232</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="64" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6337,7 +6198,7 @@
         <v>116</v>
       </c>
       <c r="AB64" s="2" t="s">
-        <v>1220</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="65" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6366,59 +6227,59 @@
         <v>131</v>
       </c>
       <c r="AB65" s="2" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>2014</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I66" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="6">
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
+    <row r="67" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="10">
         <v>2017</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="H67" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J67" s="10">
         <v>12</v>
       </c>
-      <c r="AB67" s="11" t="s">
-        <v>1288</v>
+      <c r="AB67" s="10" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="68" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6444,58 +6305,58 @@
         <v>4</v>
       </c>
       <c r="AB68" s="2" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>2014</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I69" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="6">
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B70" s="7" t="s">
+    <row r="70" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>2016</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="6">
         <v>121</v>
       </c>
     </row>
@@ -6525,7 +6386,7 @@
         <v>24</v>
       </c>
       <c r="AB71" t="s">
-        <v>1234</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="72" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6557,7 +6418,7 @@
         <v>103</v>
       </c>
       <c r="AB72" s="2" t="s">
-        <v>1220</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="73" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6586,32 +6447,32 @@
         <v>153</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <v>2013</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I74" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="6">
         <v>100</v>
       </c>
     </row>
@@ -6641,91 +6502,91 @@
         <v>224</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>2012</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="I76" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J76" s="6">
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
+    <row r="77" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="10">
         <v>2015</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="H77" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="I77" s="11" t="s">
+      <c r="I77" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J77" s="10">
         <v>26</v>
       </c>
-      <c r="AB77" s="11" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
+      <c r="AB77" s="10" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="12">
         <v>2012</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H78" s="13" t="s">
+      <c r="H78" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="I78" s="13" t="s">
+      <c r="I78" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J78" s="12">
         <v>66</v>
       </c>
-      <c r="AB78" s="13" t="s">
-        <v>1236</v>
+      <c r="AB78" s="12" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="79" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6754,29 +6615,29 @@
         <v>79</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="6">
         <v>2013</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J80" s="6">
         <v>13</v>
       </c>
     </row>
@@ -6806,29 +6667,29 @@
         <v>28</v>
       </c>
       <c r="AB81" s="2" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="6">
         <v>2017</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J82" s="6">
         <v>8</v>
       </c>
     </row>
@@ -6858,7 +6719,7 @@
         <v>35</v>
       </c>
       <c r="AB83" s="2" t="s">
-        <v>1238</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="84" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6884,59 +6745,59 @@
         <v>9</v>
       </c>
       <c r="AB84" s="2" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="6">
         <v>2013</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="I85" s="7" t="s">
+      <c r="I85" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="J85" s="7">
+      <c r="J85" s="6">
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
+    <row r="86" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="10">
         <v>2017</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="J86" s="4">
+      <c r="J86" s="10">
         <v>284</v>
       </c>
-      <c r="AB86" s="4" t="s">
-        <v>1239</v>
+      <c r="AB86" s="10" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="87" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6965,33 +6826,33 @@
         <v>329</v>
       </c>
       <c r="AB87" s="2" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="14" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C88" s="14">
+      <c r="C88" s="2">
         <v>2009</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D88" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="E88" s="14" t="s">
+      <c r="E88" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I88" s="14" t="s">
+      <c r="I88" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="J88" s="14">
+      <c r="J88" s="2">
         <v>57</v>
       </c>
-      <c r="AB88" s="14" t="s">
-        <v>1241</v>
+      <c r="AB88" s="2" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="89" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7017,52 +6878,52 @@
         <v>12</v>
       </c>
       <c r="AB89" s="2" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="6">
         <v>2015</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H90" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="J90" s="7">
+      <c r="J90" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
+    <row r="91" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="6">
         <v>2017</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H91" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="J91" s="7">
+      <c r="J91" s="6">
         <v>71</v>
       </c>
     </row>
@@ -7092,7 +6953,7 @@
         <v>82</v>
       </c>
       <c r="AB92" s="2" t="s">
-        <v>1207</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="93" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7121,32 +6982,32 @@
         <v>81</v>
       </c>
       <c r="AB93" s="2" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="6">
         <v>2013</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H94" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="I94" s="7" t="s">
+      <c r="I94" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="J94" s="7">
+      <c r="J94" s="6">
         <v>86</v>
       </c>
     </row>
@@ -7176,7 +7037,7 @@
         <v>27</v>
       </c>
       <c r="AB95" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="96" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7205,7 +7066,7 @@
         <v>174</v>
       </c>
       <c r="AB96" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="97" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7234,7 +7095,7 @@
         <v>57</v>
       </c>
       <c r="AB97" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="98" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7263,33 +7124,33 @@
         <v>49</v>
       </c>
       <c r="AB98" s="2" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="2">
         <v>2017</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="H99" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="J99" s="4">
+      <c r="J99" s="2">
         <v>284</v>
       </c>
-      <c r="AB99" s="4" t="s">
-        <v>1243</v>
+      <c r="AB99" s="2" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="100" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7318,7 +7179,7 @@
         <v>114</v>
       </c>
       <c r="AB100" s="2" t="s">
-        <v>1244</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="101" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7347,7 +7208,7 @@
         <v>57</v>
       </c>
       <c r="AB101" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="102" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7376,7 +7237,7 @@
         <v>31</v>
       </c>
       <c r="AB102" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="103" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7405,32 +7266,32 @@
         <v>84</v>
       </c>
       <c r="AB103" s="2" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="6">
         <v>2013</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H104" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="I104" s="7" t="s">
+      <c r="I104" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="J104" s="7">
+      <c r="J104" s="6">
         <v>24</v>
       </c>
     </row>
@@ -7463,7 +7324,7 @@
         <v>68</v>
       </c>
       <c r="AB105" s="2" t="s">
-        <v>1246</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="106" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7495,7 +7356,7 @@
         <v>139</v>
       </c>
       <c r="AB106" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="107" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7524,7 +7385,7 @@
         <v>165</v>
       </c>
       <c r="AB107" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="108" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7553,32 +7414,32 @@
         <v>68</v>
       </c>
       <c r="AB108" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109" s="6">
         <v>2011</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H109" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="I109" s="7" t="s">
+      <c r="I109" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="J109" s="7">
+      <c r="J109" s="6">
         <v>65</v>
       </c>
     </row>
@@ -7608,7 +7469,7 @@
         <v>2</v>
       </c>
       <c r="AB110" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="111" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7637,32 +7498,32 @@
         <v>27</v>
       </c>
       <c r="AB111" s="2" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112" s="6">
         <v>2015</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="H112" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="I112" s="7" t="s">
+      <c r="I112" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="J112" s="7">
+      <c r="J112" s="6">
         <v>26</v>
       </c>
     </row>
@@ -7692,7 +7553,7 @@
         <v>180</v>
       </c>
       <c r="AB113" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="114" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7721,32 +7582,32 @@
         <v>220</v>
       </c>
       <c r="AB114" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="115" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="6">
         <v>2012</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="H115" s="7" t="s">
+      <c r="H115" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="I115" s="7" t="s">
+      <c r="I115" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="J115" s="7">
+      <c r="J115" s="6">
         <v>23</v>
       </c>
     </row>
@@ -7776,32 +7637,32 @@
         <v>91</v>
       </c>
       <c r="AB116" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="117" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117" s="6">
         <v>2005</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="H117" s="7" t="s">
+      <c r="H117" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="I117" s="7" t="s">
+      <c r="I117" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="J117" s="7">
+      <c r="J117" s="6">
         <v>36</v>
       </c>
     </row>
@@ -7831,7 +7692,7 @@
         <v>133</v>
       </c>
       <c r="AB118" s="2" t="s">
-        <v>1285</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="119" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7863,7 +7724,7 @@
         <v>157</v>
       </c>
       <c r="AB119" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="120" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7892,7 +7753,7 @@
         <v>75</v>
       </c>
       <c r="AB120" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="121" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7918,7 +7779,7 @@
         <v>671</v>
       </c>
       <c r="AB121" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="122" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7947,7 +7808,7 @@
         <v>79</v>
       </c>
       <c r="AB122" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="123" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7976,84 +7837,84 @@
         <v>126</v>
       </c>
       <c r="AB123" s="2" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="6">
         <v>2017</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H124" s="7" t="s">
+      <c r="H124" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="I124" s="7" t="s">
+      <c r="I124" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="J124" s="7">
+      <c r="J124" s="6">
         <v>86</v>
       </c>
     </row>
-    <row r="125" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="17" t="s">
+    <row r="125" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="B125" s="17" t="s">
+      <c r="B125" s="14" t="s">
         <v>687</v>
       </c>
-      <c r="C125" s="17">
+      <c r="C125" s="14">
         <v>2013</v>
       </c>
-      <c r="D125" s="17" t="s">
+      <c r="D125" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="E125" s="17" t="s">
+      <c r="E125" s="14" t="s">
         <v>690</v>
       </c>
-      <c r="H125" s="17" t="s">
+      <c r="H125" s="14" t="s">
         <v>691</v>
       </c>
-      <c r="I125" s="17" t="s">
+      <c r="I125" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="J125" s="17">
+      <c r="J125" s="14">
         <v>19</v>
       </c>
-      <c r="AB125" s="17" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="126" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
+      <c r="AB125" s="14" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126" s="6">
         <v>2016</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E126" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="H126" s="7" t="s">
+      <c r="H126" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="J126" s="7">
+      <c r="J126" s="6">
         <v>3</v>
       </c>
     </row>
@@ -8086,7 +7947,7 @@
         <v>142</v>
       </c>
       <c r="AB127" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="128" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8115,7 +7976,7 @@
         <v>60</v>
       </c>
       <c r="AB128" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="129" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8144,7 +8005,7 @@
         <v>132</v>
       </c>
       <c r="AB129" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="130" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8170,96 +8031,96 @@
         <v>12</v>
       </c>
       <c r="AB130" s="2" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="131" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="15" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B131" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="C131" s="15">
+      <c r="C131" s="10">
         <v>1994</v>
       </c>
-      <c r="D131" s="15" t="s">
+      <c r="D131" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="E131" s="15" t="s">
+      <c r="E131" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="G131" s="15" t="s">
+      <c r="G131" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H131" s="15" t="s">
+      <c r="H131" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="I131" s="15" t="s">
+      <c r="I131" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="J131" s="15">
+      <c r="J131" s="10">
         <v>47</v>
       </c>
-      <c r="AB131" s="15" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="132" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="15" t="s">
+      <c r="AB131" s="10" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="C132" s="15">
+      <c r="C132" s="10">
         <v>2010</v>
       </c>
-      <c r="D132" s="15" t="s">
+      <c r="D132" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="E132" s="15" t="s">
+      <c r="E132" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H132" s="15" t="s">
+      <c r="H132" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="I132" s="15" t="s">
+      <c r="I132" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="J132" s="15">
+      <c r="J132" s="10">
         <v>80</v>
       </c>
-      <c r="AB132" s="15" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="133" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
+      <c r="AB132" s="10" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="C133" s="7">
+      <c r="C133" s="6">
         <v>2008</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="E133" s="7" t="s">
+      <c r="E133" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G133" s="7" t="s">
+      <c r="G133" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H133" s="7" t="s">
+      <c r="H133" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="I133" s="7" t="s">
+      <c r="I133" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="J133" s="7">
+      <c r="J133" s="6">
         <v>75</v>
       </c>
     </row>
@@ -8289,7 +8150,7 @@
         <v>36</v>
       </c>
       <c r="AB134" s="2" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="135" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8318,7 +8179,7 @@
         <v>52</v>
       </c>
       <c r="AB135" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="136" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8347,7 +8208,7 @@
         <v>27</v>
       </c>
       <c r="AB136" s="2" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="137" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8376,61 +8237,61 @@
         <v>70</v>
       </c>
       <c r="AB137" s="2" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="138" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="6">
         <v>2008</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="E138" s="7" t="s">
+      <c r="E138" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H138" s="7" t="s">
+      <c r="H138" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="I138" s="7" t="s">
+      <c r="I138" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="J138" s="7">
+      <c r="J138" s="6">
         <v>114</v>
       </c>
     </row>
-    <row r="139" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B139" s="7" t="s">
+    <row r="139" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C139" s="6">
         <v>2007</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="G139" s="7" t="s">
+      <c r="G139" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="H139" s="7" t="s">
+      <c r="H139" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="I139" s="7" t="s">
+      <c r="I139" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="J139" s="7">
+      <c r="J139" s="6">
         <v>85</v>
       </c>
     </row>
@@ -8463,7 +8324,7 @@
         <v>26</v>
       </c>
       <c r="AB140" s="2" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="141" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8492,7 +8353,7 @@
         <v>119</v>
       </c>
       <c r="AB141" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="142" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8521,32 +8382,32 @@
         <v>124</v>
       </c>
       <c r="AB142" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="143" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="C143" s="7">
+      <c r="C143" s="6">
         <v>2012</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="E143" s="7" t="s">
+      <c r="E143" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H143" s="7" t="s">
+      <c r="H143" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="I143" s="7" t="s">
+      <c r="I143" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="J143" s="7">
+      <c r="J143" s="6">
         <v>2</v>
       </c>
     </row>
@@ -8579,7 +8440,7 @@
         <v>585</v>
       </c>
       <c r="AB144" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="145" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8608,35 +8469,35 @@
         <v>123</v>
       </c>
       <c r="AB145" s="2" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="146" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C146" s="6">
         <v>2009</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E146" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="G146" s="7" t="s">
+      <c r="G146" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="H146" s="7" t="s">
+      <c r="H146" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="I146" s="7" t="s">
+      <c r="I146" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="J146" s="7">
+      <c r="J146" s="6">
         <v>23</v>
       </c>
     </row>
@@ -8669,7 +8530,7 @@
         <v>85</v>
       </c>
       <c r="AB147" s="2" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="148" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8698,7 +8559,7 @@
         <v>3</v>
       </c>
       <c r="AB148" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="149" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8727,7 +8588,7 @@
         <v>123</v>
       </c>
       <c r="AB149" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="150" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8756,7 +8617,7 @@
         <v>46</v>
       </c>
       <c r="AB150" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="151" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8785,32 +8646,32 @@
         <v>133</v>
       </c>
       <c r="AB151" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="152" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="C152" s="7">
+      <c r="C152" s="6">
         <v>2013</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="E152" s="7" t="s">
+      <c r="E152" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H152" s="7" t="s">
+      <c r="H152" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="I152" s="7" t="s">
+      <c r="I152" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="J152" s="7">
+      <c r="J152" s="6">
         <v>86</v>
       </c>
     </row>
@@ -8840,32 +8701,32 @@
         <v>126</v>
       </c>
       <c r="AB153" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="154" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="C154" s="7">
+      <c r="C154" s="6">
         <v>2016</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D154" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="E154" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H154" s="7" t="s">
+      <c r="H154" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="I154" s="7" t="s">
+      <c r="I154" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="J154" s="7">
+      <c r="J154" s="6">
         <v>70</v>
       </c>
     </row>
@@ -8895,7 +8756,7 @@
         <v>5</v>
       </c>
       <c r="AB155" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="156" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8927,35 +8788,35 @@
         <v>69</v>
       </c>
       <c r="AB156" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="157" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="C157" s="7">
+      <c r="C157" s="6">
         <v>2009</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D157" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="E157" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="G157" s="7" t="s">
+      <c r="G157" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="H157" s="7" t="s">
+      <c r="H157" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="I157" s="7" t="s">
+      <c r="I157" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="J157" s="7">
+      <c r="J157" s="6">
         <v>121</v>
       </c>
     </row>
@@ -8979,7 +8840,7 @@
         <v>872</v>
       </c>
       <c r="AB158" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="159" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9008,58 +8869,58 @@
         <v>122</v>
       </c>
       <c r="AB159" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="160" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160" s="3">
         <v>2017</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D160" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="E160" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="H160" s="4" t="s">
+      <c r="H160" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="J160" s="4">
+      <c r="J160" s="3">
         <v>4</v>
       </c>
-      <c r="AB160" s="4" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="161" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
+      <c r="AB160" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="C161" s="7">
+      <c r="C161" s="6">
         <v>2012</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D161" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="E161" s="7" t="s">
+      <c r="E161" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="H161" s="7" t="s">
+      <c r="H161" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="I161" s="7" t="s">
+      <c r="I161" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="J161" s="7">
+      <c r="J161" s="6">
         <v>23</v>
       </c>
     </row>
@@ -9089,7 +8950,7 @@
         <v>89</v>
       </c>
       <c r="AB162" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="163" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9115,65 +8976,65 @@
         <v>898</v>
       </c>
       <c r="AB163" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="164" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="C164" s="4">
+      <c r="C164" s="3">
         <v>2017</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="D164" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="E164" s="4" t="s">
+      <c r="E164" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="G164" s="4" t="s">
+      <c r="G164" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="H164" s="4" t="s">
+      <c r="H164" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="I164" s="4" t="s">
+      <c r="I164" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="J164" s="4">
+      <c r="J164" s="3">
         <v>28</v>
       </c>
-      <c r="AB164" s="4" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="165" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="14" t="s">
+      <c r="AB164" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="13" t="s">
         <v>907</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="13" t="s">
         <v>906</v>
       </c>
-      <c r="C165" s="14">
+      <c r="C165" s="13">
         <v>2018</v>
       </c>
-      <c r="D165" s="14" t="s">
+      <c r="D165" s="13" t="s">
         <v>908</v>
       </c>
-      <c r="E165" s="14" t="s">
+      <c r="E165" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H165" s="14" t="s">
+      <c r="H165" s="13" t="s">
         <v>909</v>
       </c>
-      <c r="J165" s="14">
+      <c r="J165" s="13">
         <v>72</v>
       </c>
-      <c r="AB165" s="14" t="s">
-        <v>1255</v>
+      <c r="AB165" s="13" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="166" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9202,7 +9063,7 @@
         <v>18</v>
       </c>
       <c r="AB166" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="167" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9231,38 +9092,38 @@
         <v>75</v>
       </c>
       <c r="AB167" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="168" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="C168" s="7">
+      <c r="C168" s="6">
         <v>2018</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D168" s="6" t="s">
         <v>923</v>
       </c>
-      <c r="E168" s="7" t="s">
+      <c r="E168" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="H168" s="7" t="s">
+      <c r="H168" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="I168" s="7" t="s">
+      <c r="I168" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="J168" s="7">
+      <c r="J168" s="6">
         <v>36</v>
       </c>
     </row>
     <row r="169" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>926</v>
@@ -9286,7 +9147,7 @@
         <v>107</v>
       </c>
       <c r="AB169" s="2" t="s">
-        <v>1256</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="170" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9318,7 +9179,7 @@
         <v>165</v>
       </c>
       <c r="AB170" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="171" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9347,58 +9208,58 @@
         <v>99</v>
       </c>
       <c r="AB171" s="2" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="172" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="17" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="14" t="s">
         <v>941</v>
       </c>
-      <c r="B172" s="17" t="s">
+      <c r="B172" s="14" t="s">
         <v>940</v>
       </c>
-      <c r="C172" s="17">
+      <c r="C172" s="14">
         <v>2011</v>
       </c>
-      <c r="D172" s="17" t="s">
+      <c r="D172" s="14" t="s">
         <v>942</v>
       </c>
-      <c r="E172" s="17" t="s">
+      <c r="E172" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="H172" s="17" t="s">
+      <c r="H172" s="14" t="s">
         <v>943</v>
       </c>
-      <c r="I172" s="17" t="s">
+      <c r="I172" s="14" t="s">
         <v>944</v>
       </c>
-      <c r="J172" s="17">
+      <c r="J172" s="14">
         <v>22</v>
       </c>
-      <c r="AB172" s="17" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="173" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="7" t="s">
+      <c r="AB172" s="14" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B173" s="6" t="s">
         <v>945</v>
       </c>
-      <c r="C173" s="7">
+      <c r="C173" s="6">
         <v>2017</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D173" s="6" t="s">
         <v>947</v>
       </c>
-      <c r="E173" s="7" t="s">
+      <c r="E173" s="6" t="s">
         <v>948</v>
       </c>
-      <c r="H173" s="7" t="s">
+      <c r="H173" s="6" t="s">
         <v>949</v>
       </c>
-      <c r="J173" s="7">
+      <c r="J173" s="6">
         <v>104</v>
       </c>
     </row>
@@ -9428,32 +9289,32 @@
         <v>109</v>
       </c>
       <c r="AB174" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="175" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="6" t="s">
         <v>955</v>
       </c>
-      <c r="C175" s="7">
+      <c r="C175" s="6">
         <v>2012</v>
       </c>
-      <c r="D175" s="7" t="s">
+      <c r="D175" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="E175" s="7" t="s">
+      <c r="E175" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H175" s="7" t="s">
+      <c r="H175" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="I175" s="7" t="s">
+      <c r="I175" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="J175" s="7">
+      <c r="J175" s="6">
         <v>84</v>
       </c>
     </row>
@@ -9486,7 +9347,7 @@
         <v>124</v>
       </c>
       <c r="AB176" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="177" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9512,55 +9373,55 @@
         <v>10</v>
       </c>
       <c r="AB177" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="178" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="C178" s="7">
+      <c r="C178" s="6">
         <v>2002</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D178" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="E178" s="7" t="s">
+      <c r="E178" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H178" s="7" t="s">
+      <c r="H178" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="I178" s="7" t="s">
+      <c r="I178" s="6" t="s">
         <v>975</v>
       </c>
-      <c r="J178" s="7">
+      <c r="J178" s="6">
         <v>139</v>
       </c>
     </row>
-    <row r="179" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="7" t="s">
+    <row r="179" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="C179" s="7">
+      <c r="C179" s="6">
         <v>2017</v>
       </c>
-      <c r="D179" s="7" t="s">
+      <c r="D179" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="E179" s="7" t="s">
+      <c r="E179" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H179" s="7" t="s">
+      <c r="H179" s="6" t="s">
         <v>979</v>
       </c>
-      <c r="J179" s="7">
+      <c r="J179" s="6">
         <v>71</v>
       </c>
     </row>
@@ -9590,62 +9451,62 @@
         <v>27</v>
       </c>
       <c r="AB180" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="181" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="16" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="12" t="s">
         <v>986</v>
       </c>
-      <c r="B181" s="16" t="s">
+      <c r="B181" s="12" t="s">
         <v>985</v>
       </c>
-      <c r="C181" s="16">
+      <c r="C181" s="12">
         <v>2012</v>
       </c>
-      <c r="D181" s="16" t="s">
+      <c r="D181" s="12" t="s">
         <v>987</v>
       </c>
-      <c r="E181" s="16" t="s">
+      <c r="E181" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="H181" s="16" t="s">
+      <c r="H181" s="12" t="s">
         <v>988</v>
       </c>
-      <c r="J181" s="16">
+      <c r="J181" s="12">
         <v>7</v>
       </c>
-      <c r="AB181" s="16" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="182" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="11" t="s">
+      <c r="AB181" s="12" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="10" t="s">
         <v>990</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B182" s="10" t="s">
         <v>989</v>
       </c>
-      <c r="C182" s="11">
+      <c r="C182" s="10">
         <v>2010</v>
       </c>
-      <c r="D182" s="11" t="s">
+      <c r="D182" s="10" t="s">
         <v>991</v>
       </c>
-      <c r="E182" s="11" t="s">
+      <c r="E182" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H182" s="11" t="s">
+      <c r="H182" s="10" t="s">
         <v>992</v>
       </c>
-      <c r="I182" s="11" t="s">
+      <c r="I182" s="10" t="s">
         <v>993</v>
       </c>
-      <c r="J182" s="11">
+      <c r="J182" s="10">
         <v>80</v>
       </c>
-      <c r="AB182" s="11" t="s">
-        <v>1260</v>
+      <c r="AB182" s="10" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="183" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9674,7 +9535,7 @@
         <v>123</v>
       </c>
       <c r="AB183" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="184" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9703,7 +9564,7 @@
         <v>106</v>
       </c>
       <c r="AB184" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="185" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9732,32 +9593,32 @@
         <v>89</v>
       </c>
       <c r="AB185" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="186" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
         <v>1010</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="6" t="s">
         <v>1009</v>
       </c>
-      <c r="C186" s="7">
+      <c r="C186" s="6">
         <v>2005</v>
       </c>
-      <c r="D186" s="7" t="s">
+      <c r="D186" s="6" t="s">
         <v>1011</v>
       </c>
-      <c r="E186" s="7" t="s">
+      <c r="E186" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H186" s="7" t="s">
+      <c r="H186" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="I186" s="7" t="s">
+      <c r="I186" s="6" t="s">
         <v>1013</v>
       </c>
-      <c r="J186" s="7">
+      <c r="J186" s="6">
         <v>69</v>
       </c>
     </row>
@@ -9787,32 +9648,32 @@
         <v>84</v>
       </c>
       <c r="AB187" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="188" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="6" t="s">
         <v>1020</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="6" t="s">
         <v>1019</v>
       </c>
-      <c r="C188" s="7">
+      <c r="C188" s="6">
         <v>2017</v>
       </c>
-      <c r="D188" s="7" t="s">
+      <c r="D188" s="6" t="s">
         <v>1021</v>
       </c>
-      <c r="E188" s="7" t="s">
+      <c r="E188" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H188" s="7" t="s">
+      <c r="H188" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="I188" s="7" t="s">
+      <c r="I188" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="J188" s="7">
+      <c r="J188" s="6">
         <v>123</v>
       </c>
     </row>
@@ -9842,7 +9703,7 @@
         <v>68</v>
       </c>
       <c r="AB189" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="190" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9871,7 +9732,7 @@
         <v>119</v>
       </c>
       <c r="AB190" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="191" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9900,7 +9761,7 @@
         <v>153</v>
       </c>
       <c r="AB191" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="192" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9929,7 +9790,7 @@
         <v>117</v>
       </c>
       <c r="AB192" s="2" t="s">
-        <v>1261</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="193" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9958,29 +9819,29 @@
         <v>89</v>
       </c>
       <c r="AB193" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="194" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
         <v>1050</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B194" s="6" t="s">
         <v>1049</v>
       </c>
-      <c r="C194" s="7">
+      <c r="C194" s="6">
         <v>2012</v>
       </c>
-      <c r="D194" s="7" t="s">
+      <c r="D194" s="6" t="s">
         <v>1051</v>
       </c>
-      <c r="E194" s="7" t="s">
+      <c r="E194" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="H194" s="7" t="s">
+      <c r="H194" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="J194" s="7">
+      <c r="J194" s="6">
         <v>7</v>
       </c>
     </row>
@@ -10010,36 +9871,36 @@
         <v>64</v>
       </c>
       <c r="AB195" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="196" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="17" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="14" t="s">
         <v>1059</v>
       </c>
-      <c r="B196" s="17" t="s">
+      <c r="B196" s="14" t="s">
         <v>1058</v>
       </c>
-      <c r="C196" s="17">
+      <c r="C196" s="14">
         <v>2016</v>
       </c>
-      <c r="D196" s="17" t="s">
+      <c r="D196" s="14" t="s">
         <v>1060</v>
       </c>
-      <c r="E196" s="17" t="s">
+      <c r="E196" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H196" s="17" t="s">
+      <c r="H196" s="14" t="s">
         <v>1061</v>
       </c>
-      <c r="I196" s="17" t="s">
+      <c r="I196" s="14" t="s">
         <v>1062</v>
       </c>
-      <c r="J196" s="17">
+      <c r="J196" s="14">
         <v>113</v>
       </c>
-      <c r="AB196" s="17" t="s">
-        <v>1287</v>
+      <c r="AB196" s="14" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="197" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10068,7 +9929,7 @@
         <v>91</v>
       </c>
       <c r="AB197" s="2" t="s">
-        <v>1286</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="198" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10097,55 +9958,55 @@
         <v>124</v>
       </c>
       <c r="AB198" s="2" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="199" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="7" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="6" t="s">
         <v>1074</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="6" t="s">
         <v>1073</v>
       </c>
-      <c r="C199" s="7">
+      <c r="C199" s="6">
         <v>2015</v>
       </c>
-      <c r="D199" s="7" t="s">
+      <c r="D199" s="6" t="s">
         <v>1075</v>
       </c>
-      <c r="E199" s="7" t="s">
+      <c r="E199" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H199" s="7" t="s">
+      <c r="H199" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="I199" s="7" t="s">
+      <c r="I199" s="6" t="s">
         <v>1077</v>
       </c>
-      <c r="J199" s="7">
+      <c r="J199" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="200" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="7" t="s">
+    <row r="200" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="6" t="s">
         <v>1079</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B200" s="6" t="s">
         <v>1078</v>
       </c>
-      <c r="C200" s="7">
+      <c r="C200" s="6">
         <v>1997</v>
       </c>
-      <c r="D200" s="7" t="s">
+      <c r="D200" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E200" s="7" t="s">
+      <c r="E200" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="I200" s="7" t="s">
+      <c r="I200" s="6" t="s">
         <v>1081</v>
       </c>
-      <c r="J200" s="7">
+      <c r="J200" s="6">
         <v>200</v>
       </c>
     </row>
@@ -10175,94 +10036,94 @@
         <v>21</v>
       </c>
       <c r="AB201" s="2" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="202" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="C202" s="4">
+      <c r="C202" s="3">
         <v>2017</v>
       </c>
-      <c r="D202" s="4" t="s">
+      <c r="D202" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="E202" s="4" t="s">
+      <c r="E202" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="G202" s="4" t="s">
+      <c r="G202" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="H202" s="4" t="s">
+      <c r="H202" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="I202" s="4" t="s">
+      <c r="I202" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="J202" s="4">
+      <c r="J202" s="3">
         <v>4</v>
       </c>
-      <c r="AB202" s="4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="203" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="7" t="s">
+      <c r="AB202" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="s">
         <v>1096</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="6" t="s">
         <v>1095</v>
       </c>
-      <c r="C203" s="7">
+      <c r="C203" s="6">
         <v>2016</v>
       </c>
-      <c r="D203" s="7" t="s">
+      <c r="D203" s="6" t="s">
         <v>1097</v>
       </c>
-      <c r="E203" s="7" t="s">
+      <c r="E203" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H203" s="7" t="s">
+      <c r="H203" s="6" t="s">
         <v>1098</v>
       </c>
-      <c r="I203" s="7" t="s">
+      <c r="I203" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="J203" s="7">
+      <c r="J203" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="204" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="14" t="s">
+    <row r="204" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="13" t="s">
         <v>1101</v>
       </c>
-      <c r="B204" s="14" t="s">
+      <c r="B204" s="13" t="s">
         <v>1100</v>
       </c>
-      <c r="C204" s="14">
+      <c r="C204" s="13">
         <v>2017</v>
       </c>
-      <c r="D204" s="14" t="s">
+      <c r="D204" s="13" t="s">
         <v>1102</v>
       </c>
-      <c r="E204" s="14" t="s">
+      <c r="E204" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="H204" s="14" t="s">
+      <c r="H204" s="13" t="s">
         <v>1103</v>
       </c>
-      <c r="I204" s="14" t="s">
+      <c r="I204" s="13" t="s">
         <v>1104</v>
       </c>
-      <c r="J204" s="14">
+      <c r="J204" s="13">
         <v>145</v>
       </c>
-      <c r="AB204" s="14" t="s">
-        <v>1265</v>
+      <c r="AB204" s="13" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="205" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10291,59 +10152,59 @@
         <v>42</v>
       </c>
       <c r="AB205" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="206" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="206" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="6" t="s">
         <v>1112</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="6" t="s">
         <v>1111</v>
       </c>
-      <c r="C206" s="7">
+      <c r="C206" s="6">
         <v>2015</v>
       </c>
-      <c r="D206" s="7" t="s">
+      <c r="D206" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="E206" s="7" t="s">
+      <c r="E206" s="6" t="s">
         <v>1114</v>
       </c>
-      <c r="H206" s="7" t="s">
+      <c r="H206" s="6" t="s">
         <v>1115</v>
       </c>
-      <c r="J206" s="7">
+      <c r="J206" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="7" t="s">
+    <row r="207" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="s">
         <v>1117</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="6" t="s">
         <v>1116</v>
       </c>
-      <c r="C207" s="7">
+      <c r="C207" s="6">
         <v>2017</v>
       </c>
-      <c r="D207" s="7" t="s">
+      <c r="D207" s="6" t="s">
         <v>1118</v>
       </c>
-      <c r="E207" s="7" t="s">
+      <c r="E207" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H207" s="7" t="s">
+      <c r="H207" s="6" t="s">
         <v>1119</v>
       </c>
-      <c r="I207" s="7" t="s">
+      <c r="I207" s="6" t="s">
         <v>1120</v>
       </c>
-      <c r="J207" s="7">
+      <c r="J207" s="6">
         <v>183</v>
       </c>
-      <c r="AB207" s="7" t="s">
-        <v>1266</v>
+      <c r="AB207" s="6" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="208" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10372,7 +10233,7 @@
         <v>305</v>
       </c>
       <c r="AB208" s="2" t="s">
-        <v>1269</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="209" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10401,7 +10262,7 @@
         <v>133</v>
       </c>
       <c r="AB209" s="2" t="s">
-        <v>1270</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="210" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10430,32 +10291,32 @@
         <v>20</v>
       </c>
       <c r="AB210" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="211" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="211" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="6" t="s">
         <v>1138</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B211" s="6" t="s">
         <v>1137</v>
       </c>
-      <c r="C211" s="7">
+      <c r="C211" s="6">
         <v>2018</v>
       </c>
-      <c r="D211" s="7" t="s">
+      <c r="D211" s="6" t="s">
         <v>1139</v>
       </c>
-      <c r="E211" s="7" t="s">
+      <c r="E211" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H211" s="7" t="s">
+      <c r="H211" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="I211" s="7" t="s">
+      <c r="I211" s="6" t="s">
         <v>1141</v>
       </c>
-      <c r="J211" s="7">
+      <c r="J211" s="6">
         <v>31</v>
       </c>
     </row>
@@ -10485,7 +10346,7 @@
         <v>124</v>
       </c>
       <c r="AB212" s="2" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="213" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10514,29 +10375,29 @@
         <v>80</v>
       </c>
       <c r="AB213" s="2" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="214" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="7" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="214" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="6" t="s">
         <v>1152</v>
       </c>
-      <c r="C214" s="7">
+      <c r="C214" s="6">
         <v>2015</v>
       </c>
-      <c r="D214" s="7" t="s">
+      <c r="D214" s="6" t="s">
         <v>1154</v>
       </c>
-      <c r="E214" s="7" t="s">
+      <c r="E214" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="H214" s="7" t="s">
+      <c r="H214" s="6" t="s">
         <v>1155</v>
       </c>
-      <c r="J214" s="7">
+      <c r="J214" s="6">
         <v>12</v>
       </c>
     </row>
@@ -10566,7 +10427,7 @@
         <v>169</v>
       </c>
       <c r="AB215" s="2" t="s">
-        <v>1272</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="216" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10595,32 +10456,32 @@
         <v>113</v>
       </c>
       <c r="AB216" s="2" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="217" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="7" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="217" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="6" t="s">
         <v>1168</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="6" t="s">
         <v>1167</v>
       </c>
-      <c r="C217" s="7">
+      <c r="C217" s="6">
         <v>2017</v>
       </c>
-      <c r="D217" s="7" t="s">
+      <c r="D217" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="E217" s="7" t="s">
+      <c r="E217" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="G217" s="7" t="s">
+      <c r="G217" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="H217" s="7" t="s">
+      <c r="H217" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="J217" s="7">
+      <c r="J217" s="6">
         <v>71</v>
       </c>
     </row>
@@ -10673,12 +10534,12 @@
         <v>208</v>
       </c>
       <c r="AB219" s="2" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1268</v>
+        <v>1253</v>
       </c>
     </row>
   </sheetData>
@@ -10688,7 +10549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C7:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10702,31 +10563,31 @@
   <sheetData>
     <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>1204</v>
+        <v>1190</v>
       </c>
       <c r="F7" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="J7" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="M7" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="J8" s="4"/>
-      <c r="M8" s="8"/>
+      <c r="C8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C10" s="10" t="s">
-        <v>1205</v>
+      <c r="C10" s="9" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C11" s="9"/>
+      <c r="C11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
